--- a/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4077</v>
+        <v>4082</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004600297927538671</v>
+        <v>0.00460029792753867</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02529966893297346</v>
+        <v>0.02533230801200208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4912</v>
+        <v>5154</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01714488865308708</v>
+        <v>0.01714488865308707</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05803082894778652</v>
+        <v>0.06088786255407563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>2193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5991</v>
+        <v>5849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008920735464527057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002778117970205265</v>
+        <v>0.002785653293072206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02437667312745164</v>
+        <v>0.02379862799397151</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8370</v>
+        <v>8693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27796</v>
+        <v>26707</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09792202519382892</v>
+        <v>0.09792202519382889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05194168337295363</v>
+        <v>0.0539465602539809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1724979090501176</v>
+        <v>0.1657395730887772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>9203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4553</v>
+        <v>4998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15833</v>
+        <v>15887</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1087189953093174</v>
+        <v>0.1087189953093173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0537895168477655</v>
+        <v>0.05904471411835201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1870403321459575</v>
+        <v>0.1876752169748134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -854,19 +854,19 @@
         <v>24982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17147</v>
+        <v>15954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37313</v>
+        <v>38893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1016405709792801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06976217620930476</v>
+        <v>0.06491124825025958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1518096745314801</v>
+        <v>0.1582398031326937</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>98636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84524</v>
+        <v>82904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112159</v>
+        <v>112803</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6121277445110022</v>
+        <v>0.612127744511002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5245505971850616</v>
+        <v>0.514497076473504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6960494423041659</v>
+        <v>0.700046820137845</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -904,19 +904,19 @@
         <v>52261</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44559</v>
+        <v>43811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59431</v>
+        <v>60198</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6173819848788121</v>
+        <v>0.617381984878812</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5263934322662818</v>
+        <v>0.5175572712082268</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7020823924875237</v>
+        <v>0.7111368584448857</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>166</v>
@@ -925,19 +925,19 @@
         <v>150897</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134599</v>
+        <v>133619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>166875</v>
+        <v>167917</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6139373386069829</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5476251946590747</v>
+        <v>0.5436408501218417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6789447907500149</v>
+        <v>0.6831823920958949</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>45980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33175</v>
+        <v>33664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62877</v>
+        <v>61777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2853499323676303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2058842292543692</v>
+        <v>0.2089149260501074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3902131263251383</v>
+        <v>0.3833821258609897</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -975,19 +975,19 @@
         <v>21734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15371</v>
+        <v>15031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30327</v>
+        <v>30337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2567541311587834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1815831624422229</v>
+        <v>0.1775671047307364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3582664865694594</v>
+        <v>0.3583850334066234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -996,19 +996,19 @@
         <v>67714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53485</v>
+        <v>52020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85216</v>
+        <v>84815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2755013549492101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2176067468894952</v>
+        <v>0.2116475537627056</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.346708085362056</v>
+        <v>0.3450769966854529</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>37957</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26079</v>
+        <v>26864</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54216</v>
+        <v>55900</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03016900024122581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02072832029673703</v>
+        <v>0.02135242383678803</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04309230703148377</v>
+        <v>0.04443040016643042</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -1121,19 +1121,19 @@
         <v>20259</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12896</v>
+        <v>13648</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27680</v>
+        <v>29378</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02177565672974766</v>
+        <v>0.02177565672974765</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01386175424664083</v>
+        <v>0.01466980355351426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02975237082585926</v>
+        <v>0.03157727356259324</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -1142,19 +1142,19 @@
         <v>58216</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>44799</v>
+        <v>44635</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78146</v>
+        <v>76530</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02660089091680881</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02047034380993034</v>
+        <v>0.02039547421574179</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03570756967307568</v>
+        <v>0.03496911479143022</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>185375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156925</v>
+        <v>157619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215865</v>
+        <v>216445</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1473406265602187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1247282612250811</v>
+        <v>0.1252793135214333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1715751800162847</v>
+        <v>0.1720357209477656</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -1192,19 +1192,19 @@
         <v>128528</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110697</v>
+        <v>112347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148711</v>
+        <v>150844</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1381493682785704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1189832107124629</v>
+        <v>0.1207572261011473</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1598430322404105</v>
+        <v>0.1621361376311809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -1213,19 +1213,19 @@
         <v>313903</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>280573</v>
+        <v>283772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346442</v>
+        <v>349455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1434333142557687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.128203967254556</v>
+        <v>0.1296655089827269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1583016945891236</v>
+        <v>0.1596786666671805</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>763357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>722909</v>
+        <v>720831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>804915</v>
+        <v>801747</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6067356687360925</v>
+        <v>0.6067356687360926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5745861078051827</v>
+        <v>0.5729351558067746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6397669998633746</v>
+        <v>0.6372485727767474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>763</v>
@@ -1263,19 +1263,19 @@
         <v>570057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542194</v>
+        <v>539481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595936</v>
+        <v>596850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6127307841394338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5827822937171847</v>
+        <v>0.5798660629324344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.640547764032283</v>
+        <v>0.641530006106383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1434</v>
@@ -1284,19 +1284,19 @@
         <v>1333414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1284124</v>
+        <v>1287905</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1380468</v>
+        <v>1382842</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.609284263005154</v>
+        <v>0.6092842630051541</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5867618909403126</v>
+        <v>0.588489804834161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6307848071941239</v>
+        <v>0.6318696859792007</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>271449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>239756</v>
+        <v>238252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>310088</v>
+        <v>306443</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2157547044624628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1905639972862288</v>
+        <v>0.1893684564110296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2464657195437346</v>
+        <v>0.2435689546111627</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>283</v>
@@ -1334,19 +1334,19 @@
         <v>211511</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>187557</v>
+        <v>188658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>235104</v>
+        <v>237061</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2273441908522482</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2015969381396113</v>
+        <v>0.2027803974408691</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2527033964798899</v>
+        <v>0.2548074030472758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>504</v>
@@ -1355,19 +1355,19 @@
         <v>482960</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>442795</v>
+        <v>446538</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>526083</v>
+        <v>525756</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2206815318222684</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2023288215377591</v>
+        <v>0.2040389128923301</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.240386005071287</v>
+        <v>0.240236670922123</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>13473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6653</v>
+        <v>6974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24699</v>
+        <v>24895</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02805963014230255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01385665042727985</v>
+        <v>0.01452408433303828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05144034816987302</v>
+        <v>0.05184655436940421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1480,19 +1480,19 @@
         <v>13397</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7767</v>
+        <v>7684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21703</v>
+        <v>21066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02802794280040843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01624821733402657</v>
+        <v>0.01607601683126112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04540279117921509</v>
+        <v>0.04407096984884414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -1501,19 +1501,19 @@
         <v>26871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17416</v>
+        <v>17509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37919</v>
+        <v>41177</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02804382207339781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01817650834274786</v>
+        <v>0.01827328901562886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03957467418485063</v>
+        <v>0.04297502489119646</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>24873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15154</v>
+        <v>15052</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39954</v>
+        <v>39606</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05180262932318162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03156047252443547</v>
+        <v>0.03134858266875339</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08320963040753045</v>
+        <v>0.08248557727352769</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -1551,19 +1551,19 @@
         <v>44184</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32772</v>
+        <v>34787</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55728</v>
+        <v>57289</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09243341934332076</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0685600620205552</v>
+        <v>0.07277606841866699</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1165850212079592</v>
+        <v>0.1198510773393817</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>75</v>
@@ -1572,19 +1572,19 @@
         <v>69057</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>54020</v>
+        <v>53992</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>87813</v>
+        <v>86415</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07207237395618728</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05637840255308445</v>
+        <v>0.05634951175873642</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09164727851959181</v>
+        <v>0.09018805203184448</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>267745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244275</v>
+        <v>244021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291578</v>
+        <v>292787</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5576182252914371</v>
+        <v>0.557618225291437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5087385358900507</v>
+        <v>0.5082088556447647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6072552071766807</v>
+        <v>0.6097716595247412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>381</v>
@@ -1622,19 +1622,19 @@
         <v>275222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>254699</v>
+        <v>255946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>293618</v>
+        <v>294783</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5757716956442552</v>
+        <v>0.5757716956442551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5328365065286007</v>
+        <v>0.5354453477677213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6142564175357437</v>
+        <v>0.6166952698259818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>628</v>
@@ -1643,19 +1643,19 @@
         <v>542966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512684</v>
+        <v>512444</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>574992</v>
+        <v>574150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5666745642912959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.535070646136017</v>
+        <v>0.5348199314914908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6000994499555459</v>
+        <v>0.5992198659595399</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>174067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151285</v>
+        <v>150336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198785</v>
+        <v>199264</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3625195152430788</v>
+        <v>0.3625195152430787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3150732320319322</v>
+        <v>0.3130960834169796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4139985513191863</v>
+        <v>0.4149966113676661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -1693,19 +1693,19 @@
         <v>145202</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128538</v>
+        <v>128477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>165856</v>
+        <v>166332</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3037669422120155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2689049709054122</v>
+        <v>0.2687766247744042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3469762401628584</v>
+        <v>0.3479710574556751</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -1714,19 +1714,19 @@
         <v>319268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>289457</v>
+        <v>291709</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347579</v>
+        <v>347766</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3332092396791189</v>
+        <v>0.333209239679119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3020958791370192</v>
+        <v>0.3044462221788653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3627562739557902</v>
+        <v>0.3629516306801761</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>52171</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37678</v>
+        <v>38031</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72024</v>
+        <v>68800</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02746668806713852</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01983671273900418</v>
+        <v>0.02002256102383833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03791847506862339</v>
+        <v>0.0362214783429199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1839,19 +1839,19 @@
         <v>35108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26136</v>
+        <v>25693</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46826</v>
+        <v>45907</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02351484685551607</v>
+        <v>0.02351484685551606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01750577927527516</v>
+        <v>0.01720864499342323</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03136346376838034</v>
+        <v>0.0307483035373304</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -1860,19 +1860,19 @@
         <v>87279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71005</v>
+        <v>69983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107119</v>
+        <v>109212</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02572748777008401</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02093034974327204</v>
+        <v>0.02062898359810842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03157590342007125</v>
+        <v>0.03219281333222384</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>226027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192893</v>
+        <v>192139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262523</v>
+        <v>258511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1189972041886695</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1015531936808469</v>
+        <v>0.1011562421101498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1382112514844525</v>
+        <v>0.1360991532690252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -1910,19 +1910,19 @@
         <v>181915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159864</v>
+        <v>159205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204617</v>
+        <v>204905</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1218442257704013</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1070753322851528</v>
+        <v>0.1066335385439042</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1370499720845034</v>
+        <v>0.1372432872405155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>417</v>
@@ -1931,19 +1931,19 @@
         <v>407942</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>371307</v>
+        <v>369552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>455032</v>
+        <v>450661</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1202501747701053</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1094511764017206</v>
+        <v>0.1089339365546729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1341310948052004</v>
+        <v>0.1328427334519927</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>1129738</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1081399</v>
+        <v>1079901</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1178229</v>
+        <v>1181539</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.59477669101629</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.569327822950664</v>
+        <v>0.5685387708207562</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6203057187216359</v>
+        <v>0.6220487475398628</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1218</v>
@@ -1981,19 +1981,19 @@
         <v>897540</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>861861</v>
+        <v>865342</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>930499</v>
+        <v>933135</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.601161602679537</v>
+        <v>0.6011616026795369</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5772645032003471</v>
+        <v>0.5795956572221138</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6232371854369834</v>
+        <v>0.6250031815515017</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2228</v>
@@ -2002,19 +2002,19 @@
         <v>2027277</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1963964</v>
+        <v>1969982</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2085519</v>
+        <v>2086317</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5975866825282785</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5789236715068181</v>
+        <v>0.5806977140203805</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6147549802887465</v>
+        <v>0.6149901909173743</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>491496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>451990</v>
+        <v>447098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>538171</v>
+        <v>535650</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.258759416727902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2379608597279431</v>
+        <v>0.2353850025101881</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2833326399299096</v>
+        <v>0.2820054765296892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>501</v>
@@ -2052,19 +2052,19 @@
         <v>378447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>351638</v>
+        <v>347420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>414552</v>
+        <v>407242</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2534793246945457</v>
+        <v>0.2534793246945456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2355230193133674</v>
+        <v>0.2326977247023689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2776622037073441</v>
+        <v>0.2727662104271841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>900</v>
@@ -2073,19 +2073,19 @@
         <v>869943</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>819444</v>
+        <v>817319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>928595</v>
+        <v>926951</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2564356549315321</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2415499550453997</v>
+        <v>0.2409236096567013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2737248277893118</v>
+        <v>0.2732402220486176</v>
       </c>
     </row>
     <row r="23">
